--- a/DsAlogPOM/src/test/resources/TestData/DsAlgoTD.xlsx
+++ b/DsAlogPOM/src/test/resources/TestData/DsAlgoTD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{04D0D642-5E83-42CD-90B5-1223135E1F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E44866C7-5936-42D8-B2ED-47927CC8AE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -57,13 +57,19 @@
   </si>
   <si>
     <t>asdwe_235</t>
+  </si>
+  <si>
+    <t>asdet@twer</t>
+  </si>
+  <si>
+    <t>asd124rt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +81,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,7 +115,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -388,7 +400,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,12 +456,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{D6FEAA3C-19FE-4EF0-95B0-4C1BB3373D98}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{4224D24C-E84A-43C7-AB7A-01C91B71EF5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>